--- a/public/images/bwdl2.0.6-5剧本.xlsx
+++ b/public/images/bwdl2.0.6-5剧本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9300" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="3" r:id="rId1"/>
@@ -835,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +847,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1173,7 +1176,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
   </cols>
@@ -1204,13 +1207,13 @@
   <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="200.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:1">
@@ -1219,7 +1222,7 @@
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1295,12 +1298,12 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="200.777777777778" customWidth="1"/>
     <col min="2" max="2" width="23.6759259259259" customWidth="1"/>
   </cols>
   <sheetData>

--- a/public/images/bwdl2.0.6-5剧本.xlsx
+++ b/public/images/bwdl2.0.6-5剧本.xlsx
@@ -835,21 +835,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1182,17 +1179,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1222,7 +1219,7 @@
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1295,327 +1292,273 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="200.777777777778" customWidth="1"/>
-    <col min="2" max="2" width="23.6759259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:2">
+    <row r="1" ht="22.5" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="31" ht="39" customHeight="1" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:1">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="46" ht="39" customHeight="1" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="47" ht="22.5" customHeight="1" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="48" ht="22.5" customHeight="1" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" ht="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="49" ht="39" customHeight="1" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" ht="55.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="50" ht="55.5" customHeight="1" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" ht="55.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="51" ht="55.5" customHeight="1" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="52" ht="22.5" customHeight="1" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" ht="22.5" customHeight="1" spans="1:2">
+    </row>
+    <row r="53" ht="22.5" customHeight="1" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
